--- a/Webserviceliste/Webservice.xlsx
+++ b/Webserviceliste/Webservice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\Webserviceliste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72DC00D-3556-4607-AB95-67A0C2BEFB5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460DAE69-D252-49F6-92D9-12D58BD03DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{8A73E80B-13D6-49DF-B49B-FA567B6E0C16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A73E80B-13D6-49DF-B49B-FA567B6E0C16}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -41,24 +41,15 @@
     <t>Gegenstand</t>
   </si>
   <si>
-    <t>http://localhost:8080/OhFoundWebService/Ohfound/GegenstandListe/alleGegenstaende</t>
-  </si>
-  <si>
     <t>GET alle Gegenstände</t>
   </si>
   <si>
     <t>GET nur ein Gegenstand</t>
   </si>
   <si>
-    <t>http://localhost:8080/OhFoundWebService/Ohfound/GegenstandDetail/1</t>
-  </si>
-  <si>
     <t xml:space="preserve">POST </t>
   </si>
   <si>
-    <t>http://localhost:8080/OhFoundWebService/Ohfound/GegenstandDetail</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
@@ -74,15 +65,6 @@
     <t>GET nur ein Überbegriff</t>
   </si>
   <si>
-    <t>http://localhost:8080/OhFoundWebService/Ohfound/UeberbegriffListe/alleUeberbegriffe</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/OhFoundWebService/Ohfound/UeberbegriffDetail/1</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/OhFoundWebService/Ohfound/UeberbegriffDetail</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -92,10 +74,28 @@
     <t>POST login</t>
   </si>
   <si>
-    <t>http://localhost:8080/OhFoundWebService/Ohfound/UserDetail/register</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/OhFoundWebService/Ohfound/UserDetail/login</t>
+    <t>http://localhost:8080/OhFoundWebService_1/Ohfound/GegenstandListe/alleGegenstaende</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/OhFoundWebService_1/Ohfound/GegenstandDetail/1</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/OhFoundWebService_1/Ohfound/GegenstandDetail</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/OhFoundWebService_1/Ohfound/UeberbegriffListe/alleUeberbegriffe</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/OhFoundWebService_1/Ohfound/UeberbegriffDetail/1</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/OhFoundWebService_1/Ohfound/UeberbegriffDetail</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/OhFoundWebService_1/Ohfound/UserDetail/register</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/OhFoundWebService_1/Ohfound/UserDetail/login</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,99 +487,99 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
